--- a/biology/Biochimie/Nagai_Nagayoshi/Nagai_Nagayoshi.xlsx
+++ b/biology/Biochimie/Nagai_Nagayoshi/Nagai_Nagayoshi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nagai Nagayoshi (長井 長義?, 8 août 1844 - 10 février 1929) est un biochimiste japonais connu pour ses travaux sur l'éphédrine.
 </t>
@@ -511,7 +523,9 @@
           <t>Enfance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nagai naquit dans le district de Myōdō dans la province d'Awa d'un père médecin. En 1864, il commença à étudier la médecine occidentale à la faculté de Nagasaki (Igaku Denshusho) où il côtoya de futures grandes figures du gouvernement Meiji tels Ōkubo Toshimichi et Itō Hirobumi.
 </t>
@@ -542,7 +556,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nagai  poursuivit ses études à l'Université Impériale de Tokyo et devint le premier docteur en pharmacie du Japon. En 1871, ayant décroché une bourse d'état, il partit en Prusse afin d'étudier à l'Université Humboldt de Berlin où, seul civil au sein d'un groupe d'étudiants militaires, il se lia d'amitié avec le futur diplomate Aoki Shūzō, lui aussi fils de médecin, issu d'une famille de hauts dignitaires (samurai) du domaine de Chōshū. 
 Alors assistant de laboratoire auprès de von Hofmann, il fut très influencé par ses travaux sur la chimie organique et obtint finalement un doctorat pour son étude sur l’eugénol. 
@@ -576,7 +592,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant son séjour en Allemagne, Nagai épousa Therese Schumacher, fille d'un industriel ayant fait fortune dans l'exploitation forestière et minière. 
 Cette dernière devint professeure d'allemand à l'Université pour femmes du Japon à la suite de son ouverture en 1901 où elle contribua activement à faire découvrir la culture et la gastronomie allemande à la haute société japonaise. 
@@ -611,7 +629,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1885 : Première extraction de l'éphédrine en tant que principe actif de l'Ephedra vulgaris.
 1893 : Première synthèse de la méthamphétamine à partir de l'éphédrine (plus tard synthétisée sous forme cristalline en 1919 par Akira Ogata)
